--- a/SBoxMakale.xlsx
+++ b/SBoxMakale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozcan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\sboxlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763EC8D0-53D2-4321-8E27-E372C6D002EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583E703-9907-4D19-8C67-9DFD72B27053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{88AF638F-4DE3-4BF4-B879-4367F60CA170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Normal</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>CAED1FB072543698</t>
+  </si>
+  <si>
+    <t>Makale</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>GATE</t>
   </si>
 </sst>
 </file>
@@ -199,9 +208,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{A968680D-DE3A-4139-A2AA-6B3C6CF23059}"/>
@@ -537,44 +546,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B8C4E2-E388-46D0-B37C-6E3BBE0BA02C}">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="3" width="27.73046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" style="5"/>
-    <col min="7" max="7" width="12.796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="5"/>
-    <col min="9" max="9" width="22.796875" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="5"/>
+    <col min="10" max="10" width="8.1328125" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -588,19 +608,34 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -616,12 +651,27 @@
       <c r="F4" s="5">
         <v>33</v>
       </c>
-      <c r="I4" s="8">
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7">
         <v>6</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10</v>
+      </c>
+      <c r="O4" s="7">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -637,12 +687,27 @@
       <c r="F5" s="5">
         <v>33</v>
       </c>
-      <c r="I5" s="8">
-        <v>4</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>13</v>
+      </c>
+      <c r="M5" s="7">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8</v>
+      </c>
+      <c r="O5" s="7">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -658,12 +723,27 @@
       <c r="F6" s="5">
         <v>37</v>
       </c>
-      <c r="I6" s="8">
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
+        <v>33</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12</v>
+      </c>
+      <c r="O6" s="7">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -679,12 +759,27 @@
       <c r="F7" s="5">
         <v>33</v>
       </c>
-      <c r="I7" s="8">
+      <c r="G7" s="5">
+        <v>11</v>
+      </c>
+      <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7">
+        <v>31</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -700,15 +795,32 @@
       <c r="F8" s="5">
         <v>31</v>
       </c>
-      <c r="I8" s="8">
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
         <v>3</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7">
+        <v>31</v>
+      </c>
+      <c r="N8" s="7">
+        <v>8</v>
+      </c>
+      <c r="O8" s="7">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G2:H2"/>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
